--- a/similarities/split_global/harmonic_similarity_timestamps_108.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_108.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_13</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'G:maj']]</t>
+          <t>['E', 'E:7/3', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:23.629455', '0:00:29.120975')]</t>
+          <t>('0:00:53.320000', '0:01:01.840000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:57.420000', '0:01:03.440000')]</t>
+          <t>('0:00:20.410362', '0:00:24.856984')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=23.629455']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=53.32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=57.42']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=20.410362</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:00.400000', '0:02:03.780000')]</t>
+          <t>('0:01:22.070000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:21.280000', '0:00:49.280000')]</t>
+          <t>('0:00:57.400000', '0:01:05.220000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=120.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=21.28']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=57.4</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb:maj6', 'G:min7', 'C:min7']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj6', 'D:maj6/5', 'G:maj6/5']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:03.820000', '0:00:05.790000')]</t>
+          <t>('0:00:40.820000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:25.606734', '0:01:28.102879')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=3.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=85.606734']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:07.720000')]</t>
+          <t>('0:00:07.980000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=7.98</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C#:maj/F', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:41.320000', '0:00:46.640000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:34.640000', '0:00:39')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=34.64</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['C:7', 'F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>['Bb:7', 'Eb', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:11.260000', '0:00:13.220000')]</t>
+          <t>('0:00:40.500000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
+          <t>('0:00:18.253000', '0:00:22.735000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=40.5</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=55.002834']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=18.253</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'F#:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.220000', '0:00:03.440000')]</t>
+          <t>('0:00:08.413696', '0:00:11.072593')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:36.732085', '0:00:41.248366')]</t>
+          <t>('0:00:40.490000', '0:00:47.860000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=0.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=36.732085']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_44</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_64</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Eb:min7', 'Ab:7', 'Db:maj7']]</t>
+          <t>['D:maj/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C:maj7']]</t>
+          <t>['F:maj/C', 'C:7', 'F:min/C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:12.640000', '0:00:16.490000')]</t>
+          <t>('0:00:49.400000', '0:00:56.760000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:07.660000', '0:00:11.020000')]</t>
+          <t>('0:00:34.340000', '0:00:35.880000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-44#t=12.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=49.4</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=7.66']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=34.34</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>jaah_20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['Bb:7', 'Eb', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['E:7', 'A', 'B:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:18.720000')]</t>
+          <t>('0:00:08.860000', '0:00:15.840000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000')]</t>
+          <t>('0:00:22.369000', '0:00:29.182000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=8.86</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=22.369</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>jaah_35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Eb:7', 'Ab:7', 'Eb:7', 'Ab:7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Bb:7', 'Eb:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:02:15.470000', '0:02:17.330000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:00:11.510000', '0:00:28.830000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=135.47</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-35#t=11.51</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:7JXfQmzQwnGvbAVnV9ODpn</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_30</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>['G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+          <t>('0:00:00.421247', '0:00:08.635573')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+          <t>('0:00:08.720000', '0:00:14.060000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-30#t=24.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=0.421247</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=57.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.72</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:02.580000', '0:00:16.360000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:01.421269', '0:00:26.162131')]</t>
+          <t>('0:00:55.840000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=2.58</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=55.84</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:04.860000', '0:00:09.640000'), ('0:00:02.360000', '0:00:05.680000')]</t>
+          <t>('0:00:33.100000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:27.460000', '0:00:36.020000')]</t>
+          <t>('0:00:35.460000', '0:00:50.440000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=2.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=33.1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=27.46']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=35.46</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+          <t>('0:00:09.200000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_185</t>
+          <t>schubert-winterreise_102</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:min/E', 'B:maj/D#']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'E:min', 'F#']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:09.640000', '0:01:12.080000')]</t>
+          <t>('0:00:20.200000', '0:00:22.820000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:33.686916', '0:00:42.951678')]</t>
+          <t>('0:00:16.840000', '0:00:19.460000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=69.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=20.2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-185#t=33.686916']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
